--- a/Data/CovidDrugScreen_Survival.xlsx
+++ b/Data/CovidDrugScreen_Survival.xlsx
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C495" sqref="C495"/>
+    <sheetView tabSelected="1" topLeftCell="A299" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14141,7 +14141,7 @@
         <v>100</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">

--- a/Data/CovidDrugScreen_Survival.xlsx
+++ b/Data/CovidDrugScreen_Survival.xlsx
@@ -659,7 +659,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="CenteredCell" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -960,12 +960,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R592"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C308" sqref="C308:C311"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H585" sqref="H585"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
@@ -9321,6 +9321,9 @@
       <c r="H278">
         <v>1</v>
       </c>
+      <c r="I278" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
@@ -9348,6 +9351,9 @@
       <c r="H279">
         <v>1</v>
       </c>
+      <c r="I279" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
@@ -9375,6 +9381,9 @@
       <c r="H280">
         <v>1</v>
       </c>
+      <c r="I280" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
@@ -9402,6 +9411,9 @@
       <c r="H281">
         <v>1</v>
       </c>
+      <c r="I281" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
@@ -9429,6 +9441,9 @@
       <c r="H282">
         <v>1</v>
       </c>
+      <c r="I282" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -9456,6 +9471,9 @@
       <c r="H283">
         <v>1</v>
       </c>
+      <c r="I283" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
@@ -9483,6 +9501,9 @@
       <c r="H284">
         <v>2</v>
       </c>
+      <c r="I284" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
@@ -9510,6 +9531,9 @@
       <c r="H285">
         <v>2</v>
       </c>
+      <c r="I285" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
@@ -9537,6 +9561,9 @@
       <c r="H286">
         <v>2</v>
       </c>
+      <c r="I286" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
@@ -9564,6 +9591,9 @@
       <c r="H287">
         <v>2</v>
       </c>
+      <c r="I287" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -9587,8 +9617,14 @@
       <c r="G288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>2</v>
       </c>
@@ -9610,8 +9646,14 @@
       <c r="G289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>2</v>
       </c>
@@ -9637,8 +9679,11 @@
       <c r="H290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>2</v>
       </c>
@@ -9664,8 +9709,11 @@
       <c r="H291">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I291" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -9691,8 +9739,11 @@
       <c r="H292">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I292" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>2</v>
       </c>
@@ -9718,8 +9769,11 @@
       <c r="H293">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I293" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>2</v>
       </c>
@@ -9745,8 +9799,11 @@
       <c r="H294">
         <v>2</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I294" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>2</v>
       </c>
@@ -9772,8 +9829,11 @@
       <c r="H295">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I295" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>2</v>
       </c>
@@ -9799,8 +9859,11 @@
       <c r="H296">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I296" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -9826,8 +9889,11 @@
       <c r="H297">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I297" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -9853,8 +9919,11 @@
       <c r="H298">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I298" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>2</v>
       </c>
@@ -9880,8 +9949,11 @@
       <c r="H299">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I299" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -9907,8 +9979,11 @@
       <c r="H300">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I300" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -9934,8 +10009,11 @@
       <c r="H301">
         <v>3</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I301" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>2</v>
       </c>
@@ -9961,8 +10039,11 @@
       <c r="H302">
         <v>3</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I302" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>2</v>
       </c>
@@ -9988,8 +10069,11 @@
       <c r="H303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I303" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>2</v>
       </c>
@@ -10014,6 +10098,9 @@
       </c>
       <c r="H304">
         <v>1</v>
+      </c>
+      <c r="I304" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10042,6 +10129,9 @@
       <c r="H305">
         <v>1</v>
       </c>
+      <c r="I305" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
@@ -10069,6 +10159,9 @@
       <c r="H306">
         <v>1</v>
       </c>
+      <c r="I306" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
@@ -10096,6 +10189,9 @@
       <c r="H307">
         <v>1</v>
       </c>
+      <c r="I307" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
@@ -10123,6 +10219,9 @@
       <c r="H308">
         <v>2</v>
       </c>
+      <c r="I308" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
@@ -10150,6 +10249,9 @@
       <c r="H309">
         <v>2</v>
       </c>
+      <c r="I309" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
@@ -10176,6 +10278,9 @@
       </c>
       <c r="H310">
         <v>2</v>
+      </c>
+      <c r="I310" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10204,6 +10309,9 @@
       <c r="H311">
         <v>2</v>
       </c>
+      <c r="I311" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
@@ -10230,6 +10338,9 @@
       </c>
       <c r="H312">
         <v>2</v>
+      </c>
+      <c r="I312" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -18028,6 +18139,9 @@
       <c r="H572">
         <v>1</v>
       </c>
+      <c r="I572" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
@@ -18052,6 +18166,12 @@
         <f>(F573/E573)*100</f>
         <v>0</v>
       </c>
+      <c r="H573">
+        <v>1</v>
+      </c>
+      <c r="I573" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
@@ -18076,6 +18196,12 @@
         <f>(F574/E574)*100</f>
         <v>0</v>
       </c>
+      <c r="H574">
+        <v>1</v>
+      </c>
+      <c r="I574" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
@@ -18343,6 +18469,9 @@
       <c r="H583">
         <v>1</v>
       </c>
+      <c r="I583" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
@@ -18370,6 +18499,9 @@
       <c r="H584">
         <v>1</v>
       </c>
+      <c r="I584" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
@@ -18396,6 +18528,9 @@
       </c>
       <c r="H585">
         <v>1</v>
+      </c>
+      <c r="I585" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
@@ -18424,6 +18559,9 @@
       <c r="H586">
         <v>1</v>
       </c>
+      <c r="I586" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
@@ -18451,6 +18589,9 @@
       <c r="H587">
         <v>1</v>
       </c>
+      <c r="I587" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
@@ -18478,6 +18619,9 @@
       <c r="H588">
         <v>2</v>
       </c>
+      <c r="I588" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
@@ -18505,6 +18649,9 @@
       <c r="H589">
         <v>2</v>
       </c>
+      <c r="I589" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
@@ -18532,6 +18679,9 @@
       <c r="H590">
         <v>2</v>
       </c>
+      <c r="I590" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
@@ -18559,6 +18709,9 @@
       <c r="H591">
         <v>2</v>
       </c>
+      <c r="I591" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
@@ -18585,6 +18738,9 @@
       </c>
       <c r="H592">
         <v>2</v>
+      </c>
+      <c r="I592" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -18705,7 +18861,7 @@
       <selection sqref="A1:I268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CovidDrugScreen_Survival.xlsx
+++ b/Data/CovidDrugScreen_Survival.xlsx
@@ -961,8 +961,8 @@
   <dimension ref="A1:R592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9349,7 +9349,7 @@
         <v>100</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I279" s="3">
         <v>10</v>
@@ -9767,7 +9767,7 @@
         <v>100</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I293" s="3">
         <v>10</v>

--- a/Data/CovidDrugScreen_Survival.xlsx
+++ b/Data/CovidDrugScreen_Survival.xlsx
@@ -961,8 +961,8 @@
   <dimension ref="A1:R592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C293" sqref="C293"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9109,7 +9109,7 @@
         <v>100</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I271" s="3">
         <v>10</v>
@@ -9439,7 +9439,7 @@
         <v>100</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" s="3">
         <v>10</v>

--- a/Data/CovidDrugScreen_Survival.xlsx
+++ b/Data/CovidDrugScreen_Survival.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$1973</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$C$1:$C$592</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -958,11 +958,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C288" sqref="C288"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H288" sqref="H288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1007,7 +1008,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -2696,7 +2697,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2996,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -3956,7 +3957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -5366,7 +5367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -5876,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -6236,7 +6237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>2</v>
       </c>
@@ -6896,7 +6897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -7825,7 +7826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>2</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>2</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>2</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>2</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>2</v>
       </c>
@@ -8095,7 +8096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>2</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>2</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>2</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>2</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>2</v>
       </c>
@@ -8245,7 +8246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>2</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>2</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>2</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>2</v>
       </c>
@@ -8365,7 +8366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>2</v>
       </c>
@@ -8395,7 +8396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -8425,7 +8426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>2</v>
       </c>
@@ -8515,7 +8516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>2</v>
       </c>
@@ -8545,7 +8546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -8575,7 +8576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>2</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>2</v>
       </c>
@@ -8635,7 +8636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>2</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>2</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>2</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>2</v>
       </c>
@@ -8875,7 +8876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -8905,7 +8906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -8965,7 +8966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>2</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>2</v>
       </c>
@@ -9109,13 +9110,13 @@
         <v>100</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I271" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>2</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>2</v>
       </c>
@@ -9235,7 +9236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>2</v>
       </c>
@@ -9295,7 +9296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>2</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>2</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>2</v>
       </c>
@@ -9385,7 +9386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>2</v>
       </c>
@@ -9475,7 +9476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>2</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>2</v>
       </c>
@@ -9535,7 +9536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>2</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>2</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>2</v>
       </c>
@@ -9713,7 +9714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>2</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>2</v>
       </c>
@@ -9803,7 +9804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>2</v>
       </c>
@@ -9857,13 +9858,13 @@
         <v>100</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I296" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -9923,7 +9924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>2</v>
       </c>
@@ -9953,7 +9954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -10013,7 +10014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>2</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>2</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>2</v>
       </c>
@@ -10343,7 +10344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>169</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>169</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>169</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>169</v>
       </c>
@@ -10463,7 +10464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>169</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>169</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>169</v>
       </c>
@@ -10553,7 +10554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>169</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>169</v>
       </c>
@@ -10613,7 +10614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>169</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>169</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>169</v>
       </c>
@@ -10703,7 +10704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>169</v>
       </c>
@@ -10733,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>169</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>169</v>
       </c>
@@ -10793,7 +10794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>169</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>169</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>169</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>169</v>
       </c>
@@ -10913,7 +10914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>169</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>169</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>169</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>169</v>
       </c>
@@ -11033,7 +11034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>169</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>169</v>
       </c>
@@ -11093,7 +11094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>169</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>169</v>
       </c>
@@ -11153,7 +11154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>169</v>
       </c>
@@ -11183,7 +11184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>169</v>
       </c>
@@ -11213,7 +11214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>169</v>
       </c>
@@ -11243,7 +11244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>169</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>169</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>169</v>
       </c>
@@ -11333,7 +11334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>169</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>169</v>
       </c>
@@ -11393,7 +11394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>169</v>
       </c>
@@ -11423,7 +11424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>169</v>
       </c>
@@ -11453,7 +11454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>169</v>
       </c>
@@ -11483,7 +11484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>169</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>169</v>
       </c>
@@ -11543,7 +11544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>169</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>169</v>
       </c>
@@ -11603,7 +11604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>169</v>
       </c>
@@ -11633,7 +11634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>169</v>
       </c>
@@ -11663,7 +11664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>169</v>
       </c>
@@ -11693,7 +11694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>169</v>
       </c>
@@ -11723,7 +11724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>169</v>
       </c>
@@ -11753,7 +11754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>169</v>
       </c>
@@ -11783,7 +11784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>169</v>
       </c>
@@ -11813,7 +11814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>169</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>169</v>
       </c>
@@ -11873,7 +11874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>169</v>
       </c>
@@ -11903,7 +11904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>169</v>
       </c>
@@ -11933,7 +11934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>169</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>169</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>169</v>
       </c>
@@ -12023,7 +12024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>169</v>
       </c>
@@ -12053,7 +12054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>169</v>
       </c>
@@ -12083,7 +12084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>169</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>169</v>
       </c>
@@ -12143,7 +12144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>169</v>
       </c>
@@ -12173,7 +12174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>169</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>169</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>169</v>
       </c>
@@ -12263,7 +12264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>169</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>169</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>169</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>169</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>169</v>
       </c>
@@ -12413,7 +12414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>169</v>
       </c>
@@ -12443,7 +12444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>169</v>
       </c>
@@ -12473,7 +12474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>169</v>
       </c>
@@ -12503,7 +12504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>169</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>169</v>
       </c>
@@ -12563,7 +12564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>169</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>169</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>169</v>
       </c>
@@ -12653,7 +12654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>169</v>
       </c>
@@ -12683,7 +12684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>169</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>169</v>
       </c>
@@ -12743,7 +12744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>169</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>169</v>
       </c>
@@ -12803,7 +12804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>169</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>169</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>169</v>
       </c>
@@ -12893,7 +12894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>169</v>
       </c>
@@ -12923,7 +12924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>169</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>169</v>
       </c>
@@ -12983,7 +12984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>169</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>169</v>
       </c>
@@ -13043,7 +13044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>169</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>169</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>169</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>169</v>
       </c>
@@ -13163,7 +13164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>169</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>169</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>169</v>
       </c>
@@ -13253,7 +13254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>169</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>169</v>
       </c>
@@ -13313,7 +13314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>169</v>
       </c>
@@ -13343,7 +13344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>169</v>
       </c>
@@ -13373,7 +13374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>169</v>
       </c>
@@ -13403,7 +13404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>169</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>169</v>
       </c>
@@ -13463,7 +13464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>169</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>169</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>169</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>169</v>
       </c>
@@ -13583,7 +13584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>169</v>
       </c>
@@ -13613,7 +13614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>169</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>169</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>169</v>
       </c>
@@ -13703,7 +13704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>169</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>169</v>
       </c>
@@ -13763,7 +13764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>169</v>
       </c>
@@ -13793,7 +13794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>169</v>
       </c>
@@ -13823,7 +13824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>169</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>169</v>
       </c>
@@ -13883,7 +13884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>169</v>
       </c>
@@ -13913,7 +13914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>169</v>
       </c>
@@ -13943,7 +13944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>169</v>
       </c>
@@ -13973,7 +13974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>169</v>
       </c>
@@ -14003,7 +14004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>169</v>
       </c>
@@ -14033,7 +14034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>169</v>
       </c>
@@ -14063,7 +14064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>169</v>
       </c>
@@ -14093,7 +14094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>169</v>
       </c>
@@ -14123,7 +14124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>169</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>169</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>169</v>
       </c>
@@ -14213,7 +14214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>169</v>
       </c>
@@ -14243,7 +14244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>169</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>169</v>
       </c>
@@ -14303,7 +14304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>169</v>
       </c>
@@ -14333,7 +14334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>169</v>
       </c>
@@ -14363,7 +14364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>169</v>
       </c>
@@ -14393,7 +14394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>169</v>
       </c>
@@ -14423,7 +14424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>169</v>
       </c>
@@ -14453,7 +14454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>169</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>169</v>
       </c>
@@ -14513,7 +14514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>169</v>
       </c>
@@ -14543,7 +14544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>169</v>
       </c>
@@ -14573,7 +14574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>169</v>
       </c>
@@ -14603,7 +14604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>169</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>169</v>
       </c>
@@ -14663,7 +14664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>169</v>
       </c>
@@ -14693,7 +14694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>169</v>
       </c>
@@ -14723,7 +14724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>169</v>
       </c>
@@ -14753,7 +14754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>169</v>
       </c>
@@ -14783,7 +14784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>169</v>
       </c>
@@ -14813,7 +14814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>169</v>
       </c>
@@ -14843,7 +14844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>169</v>
       </c>
@@ -14873,7 +14874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>169</v>
       </c>
@@ -14903,7 +14904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>169</v>
       </c>
@@ -14933,7 +14934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>169</v>
       </c>
@@ -14963,7 +14964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>169</v>
       </c>
@@ -14993,7 +14994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>169</v>
       </c>
@@ -15023,7 +15024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>169</v>
       </c>
@@ -15053,7 +15054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>169</v>
       </c>
@@ -15083,7 +15084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>169</v>
       </c>
@@ -15113,7 +15114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>169</v>
       </c>
@@ -15143,7 +15144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>169</v>
       </c>
@@ -15173,7 +15174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>169</v>
       </c>
@@ -15203,7 +15204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>169</v>
       </c>
@@ -15233,7 +15234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>169</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>169</v>
       </c>
@@ -15293,7 +15294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>169</v>
       </c>
@@ -15323,7 +15324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>169</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>169</v>
       </c>
@@ -15383,7 +15384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>169</v>
       </c>
@@ -15413,7 +15414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>169</v>
       </c>
@@ -15443,7 +15444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>169</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>169</v>
       </c>
@@ -15503,7 +15504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>169</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>169</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>169</v>
       </c>
@@ -15593,7 +15594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>169</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>169</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>169</v>
       </c>
@@ -15683,7 +15684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>169</v>
       </c>
@@ -15713,7 +15714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>169</v>
       </c>
@@ -15743,7 +15744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>169</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>169</v>
       </c>
@@ -15803,7 +15804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>169</v>
       </c>
@@ -15833,7 +15834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>169</v>
       </c>
@@ -15863,7 +15864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>169</v>
       </c>
@@ -15893,7 +15894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>169</v>
       </c>
@@ -15923,7 +15924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>169</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>169</v>
       </c>
@@ -15983,7 +15984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>169</v>
       </c>
@@ -16013,7 +16014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>169</v>
       </c>
@@ -16043,7 +16044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>169</v>
       </c>
@@ -16073,7 +16074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>169</v>
       </c>
@@ -16103,7 +16104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>169</v>
       </c>
@@ -16133,7 +16134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>169</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>169</v>
       </c>
@@ -16193,7 +16194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>169</v>
       </c>
@@ -16223,7 +16224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>169</v>
       </c>
@@ -16253,7 +16254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>169</v>
       </c>
@@ -16283,7 +16284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>169</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>169</v>
       </c>
@@ -16343,7 +16344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>169</v>
       </c>
@@ -16373,7 +16374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>169</v>
       </c>
@@ -16403,7 +16404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>169</v>
       </c>
@@ -16433,7 +16434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>169</v>
       </c>
@@ -16463,7 +16464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>169</v>
       </c>
@@ -16493,7 +16494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>169</v>
       </c>
@@ -16523,7 +16524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>169</v>
       </c>
@@ -16553,7 +16554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>169</v>
       </c>
@@ -16583,7 +16584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>169</v>
       </c>
@@ -16613,7 +16614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>169</v>
       </c>
@@ -16643,7 +16644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>169</v>
       </c>
@@ -16673,7 +16674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>169</v>
       </c>
@@ -16703,7 +16704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>169</v>
       </c>
@@ -16733,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>169</v>
       </c>
@@ -16763,7 +16764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>169</v>
       </c>
@@ -16793,7 +16794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>169</v>
       </c>
@@ -16823,7 +16824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>169</v>
       </c>
@@ -16853,7 +16854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>169</v>
       </c>
@@ -16883,7 +16884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>169</v>
       </c>
@@ -16913,7 +16914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>169</v>
       </c>
@@ -16943,7 +16944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>169</v>
       </c>
@@ -16973,7 +16974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>169</v>
       </c>
@@ -17003,7 +17004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>169</v>
       </c>
@@ -17033,7 +17034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>169</v>
       </c>
@@ -17063,7 +17064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>169</v>
       </c>
@@ -17093,7 +17094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>169</v>
       </c>
@@ -17123,7 +17124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>169</v>
       </c>
@@ -17153,7 +17154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>169</v>
       </c>
@@ -17183,7 +17184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>169</v>
       </c>
@@ -17213,7 +17214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>169</v>
       </c>
@@ -17243,7 +17244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>169</v>
       </c>
@@ -17273,7 +17274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>169</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>169</v>
       </c>
@@ -17333,7 +17334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>169</v>
       </c>
@@ -17363,7 +17364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>169</v>
       </c>
@@ -17393,7 +17394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>169</v>
       </c>
@@ -17423,7 +17424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>169</v>
       </c>
@@ -17453,7 +17454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>169</v>
       </c>
@@ -17483,7 +17484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>169</v>
       </c>
@@ -17513,7 +17514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>169</v>
       </c>
@@ -17543,7 +17544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>169</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>169</v>
       </c>
@@ -17603,7 +17604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>169</v>
       </c>
@@ -17633,7 +17634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>169</v>
       </c>
@@ -17663,7 +17664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>169</v>
       </c>
@@ -17693,7 +17694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>169</v>
       </c>
@@ -17723,7 +17724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>169</v>
       </c>
@@ -17753,7 +17754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>169</v>
       </c>
@@ -17783,7 +17784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>169</v>
       </c>
@@ -17813,7 +17814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>169</v>
       </c>
@@ -17843,7 +17844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>169</v>
       </c>
@@ -17873,7 +17874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>169</v>
       </c>
@@ -17903,7 +17904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>169</v>
       </c>
@@ -17933,7 +17934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>169</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>169</v>
       </c>
@@ -17993,7 +17994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>169</v>
       </c>
@@ -18023,7 +18024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>169</v>
       </c>
@@ -18053,7 +18054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>169</v>
       </c>
@@ -18083,7 +18084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>169</v>
       </c>
@@ -18233,7 +18234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>169</v>
       </c>
@@ -18263,7 +18264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>169</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>169</v>
       </c>
@@ -18323,7 +18324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>169</v>
       </c>
@@ -18353,7 +18354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>169</v>
       </c>
@@ -18413,7 +18414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>169</v>
       </c>
@@ -18563,7 +18564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>169</v>
       </c>
@@ -18713,7 +18714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>169</v>
       </c>
@@ -18744,6 +18745,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C592">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Sabizabulin"/>
+        <filter val="SabizabulinCmax"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="B229:B255">
     <cfRule type="colorScale" priority="13">
       <colorScale>

--- a/Data/CovidDrugScreen_Survival.xlsx
+++ b/Data/CovidDrugScreen_Survival.xlsx
@@ -962,8 +962,8 @@
   <dimension ref="A1:R592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H288" sqref="H288"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C551" sqref="C551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>100</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I264" s="3">
         <v>8</v>
@@ -9086,7 +9086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>2</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>2</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>2</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>2</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>2</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>2</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>2</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>2</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>2</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>2</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>2</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>169</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>169</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>169</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>169</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>169</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>169</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>169</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>169</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>169</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>169</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>169</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>169</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>169</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>169</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>169</v>
       </c>
@@ -18748,8 +18748,7 @@
   <autoFilter ref="C1:C592">
     <filterColumn colId="0">
       <filters>
-        <filter val="Sabizabulin"/>
-        <filter val="SabizabulinCmax"/>
+        <filter val="Lopinavir_1H04"/>
       </filters>
     </filterColumn>
   </autoFilter>
